--- a/WIP/月茗/新建 XLSX 工作表.xlsx
+++ b/WIP/月茗/新建 XLSX 工作表.xlsx
@@ -1349,7 +1349,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1"/>

--- a/WIP/月茗/新建 XLSX 工作表.xlsx
+++ b/WIP/月茗/新建 XLSX 工作表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="120">
   <si>
     <t>序号</t>
   </si>
@@ -120,8 +120,8 @@
 启用顾问</t>
   </si>
   <si>
-    <t>首都及周围一圈基建升到满级
-全部获得1个民工
+    <t>首都及周围基建升到满级（如果在“全国基建工程”中选择了第二项，取消此效果）
+首都及周围地块+1建筑槽，1民工（如果在“全国基建工程”中选择了第二项，首都+2建筑槽2民工，周围+2建筑槽+1民工）
 解锁首都建设决议</t>
   </si>
   <si>
@@ -184,6 +184,272 @@
   </si>
   <si>
     <t>贝尔托姆的命运</t>
+  </si>
+  <si>
+    <t>百废待兴</t>
+  </si>
+  <si>
+    <t>建立工业部</t>
+  </si>
+  <si>
+    <t>争取自给自足</t>
+  </si>
+  <si>
+    <t>人工合成魔晶</t>
+  </si>
+  <si>
+    <t>资源扩大生产计划</t>
+  </si>
+  <si>
+    <t>土地审计</t>
+  </si>
+  <si>
+    <t>建造大坝</t>
+  </si>
+  <si>
+    <t>全国基建工程</t>
+  </si>
+  <si>
+    <t>启用政治顾问：工业领袖
+PP+75
+随机2个核心地区：加2个建筑槽位
+1*100%加成：工业</t>
+  </si>
+  <si>
+    <t>获得“工业部”：工业研究时间：+5%，建造速度：+5%
+可用工业企业：国家工业统合协会
+随机核心地区添加1建筑位，1民工
+解锁振兴魔族工业决议</t>
+  </si>
+  <si>
+    <t>激活任务：争取自给自足
+随机核心地区添加1建筑位，1民工
+随机4个地区添加2建筑位
+1*100%加成：挖掘技术
+工业部追加效果：挖掘技术研究速度、资源加成
+解锁决议：探寻各种天然资源的替代品（1*100%加成：资源铸造，工业部追加效果：研究速度）</t>
+  </si>
+  <si>
+    <t>随机三个核心地区：加油、铁、钨、铝
+工业部追加效果：建造速度、贸易影响力、每座工厂换资源数。
+解锁资源开采决议</t>
+  </si>
+  <si>
+    <t>工业部追加效果：建筑槽位，生活消费品
+PP+50
+解锁决议：深入乡村
+解锁决议：深入城市</t>
+  </si>
+  <si>
+    <t>一个特定地区：+2建筑槽，2民工，建造大坝
+激活任务：大坝带来的影响（相邻下游地区+2建筑位，+1民工）</t>
+  </si>
+  <si>
+    <t>触发事件“两套方案”
+在下列选择中二选一：
+所有核心地块添加“基建工程”（基础设施建造速度+30%）
+或
+首都及其周围基础设施变为满级，所有核心地块添加“基建工程”（基础设施建造速度+15%）（如果完成了“在魔王城说早安”国策，隐藏此选项）
+解锁决议：扩展基建工程</t>
+  </si>
+  <si>
+    <t>跨越大洋的贸易</t>
+  </si>
+  <si>
+    <t>设立自由贸易园区</t>
+  </si>
+  <si>
+    <t>扶持代理</t>
+  </si>
+  <si>
+    <t>农业出口</t>
+  </si>
+  <si>
+    <t>规范市场竞争</t>
+  </si>
+  <si>
+    <t>资助工厂</t>
+  </si>
+  <si>
+    <t>鼓励旅游业</t>
+  </si>
+  <si>
+    <t>国有中央银行</t>
+  </si>
+  <si>
+    <t>所有不处于本大洲的国家获得“重启贸易”（好感+5，贸易影响力+10）
+启用工业企业：斯瓦尔外贸公司
+解锁对外贸易决议
+PP+50
+首都+1海军基地等级
+首都与其他随机一个省份：+1船坞
+解锁振兴魔族工业决议</t>
+  </si>
+  <si>
+    <t>PP+120
+启用政治顾问
+获得“自由贸易”
+解锁决议：设立自由贸易园区（沿海2个）
+获得地区修正：FROM.NAME自由贸易园区（可产出资源-10%，工厂建造速度+15%，建筑槽+2）</t>
+  </si>
+  <si>
+    <t>获得“农业出口”：生活消费品+10%，工厂产出+10%，每座工厂进口资源+1</t>
+  </si>
+  <si>
+    <t>如果战时：随机三个地区+2建筑槽+2军工
+否则：随机三个地区+2建筑槽+2民工</t>
+  </si>
+  <si>
+    <t>启用工业企业“国有中央银行”
+解锁决议：统一货币、
+“振兴魔族工业”所需要的决议花费减半</t>
+  </si>
+  <si>
+    <t>需要以下之一：
+纳萨力克、阿斯特莱雅、圣玛格诺利亚存在，与之和平</t>
+  </si>
+  <si>
+    <t>工业体系雏形</t>
+  </si>
+  <si>
+    <t>生产创新</t>
+  </si>
+  <si>
+    <t>研究中心</t>
+  </si>
+  <si>
+    <t>大规模建设</t>
+  </si>
+  <si>
+    <t>+1科研槽</t>
+  </si>
+  <si>
+    <t>获得“大规模建设”：建造速度+20%</t>
+  </si>
+  <si>
+    <t>建立陆军</t>
+  </si>
+  <si>
+    <t>发展海军</t>
+  </si>
+  <si>
+    <t>重视数量</t>
+  </si>
+  <si>
+    <t>重视质量</t>
+  </si>
+  <si>
+    <t>船只管理局</t>
+  </si>
+  <si>
+    <t>海军扩建计划</t>
+  </si>
+  <si>
+    <t>火力压制</t>
+  </si>
+  <si>
+    <t>船厂合同监督</t>
+  </si>
+  <si>
+    <t>陆军经验+5
+获得“战争陆军”
+获得“战争海军”
+启用总司令“”（军队改革家）</t>
+  </si>
+  <si>
+    <t>由海向陆</t>
+  </si>
+  <si>
+    <t>建造大型军舰</t>
+  </si>
+  <si>
+    <t>试验特种舰船</t>
+  </si>
+  <si>
+    <t>独立自主的空军</t>
+  </si>
+  <si>
+    <t>陆军与海军航空兵</t>
+  </si>
+  <si>
+    <t>委派高级将领</t>
+  </si>
+  <si>
+    <t>战争的教训</t>
+  </si>
+  <si>
+    <t>军队最高领导权</t>
+  </si>
+  <si>
+    <t>获得“独立自主的空军”</t>
+  </si>
+  <si>
+    <t>战争海军追加效果“海军航空兵”
+战争陆军追加效果“陆军航空兵”
+一段时间后获得“重复的研究”</t>
+  </si>
+  <si>
+    <t>启用空军部长
+启用总司令
+空军经验+25
+随机三位将领添加“与空军紧密联系”特质</t>
+  </si>
+  <si>
+    <t>如果完成了“转向军事工业”：移除工业线国策上的-25PP的临时效果，给予这一时期完成的工业国策数量的地图外军用工厂</t>
+  </si>
+  <si>
+    <t>获得领导人特质“军队最高指挥官”
+BOP向右移动15%
+战争支持度+10%</t>
+  </si>
+  <si>
+    <t>转向军事工业</t>
+  </si>
+  <si>
+    <t>体系化军事知识</t>
+  </si>
+  <si>
+    <t>NTSB</t>
+  </si>
+  <si>
+    <t>保障基本军需</t>
+  </si>
+  <si>
+    <t>铁路运输部门</t>
+  </si>
+  <si>
+    <t>海军生产</t>
+  </si>
+  <si>
+    <t>陆军生产</t>
+  </si>
+  <si>
+    <t>后勤课程</t>
+  </si>
+  <si>
+    <t>获得军事工业
+在完成工业线国策时，额外获得-25PP的临时效果（不包括“资助工厂”），这一临时效果将在完成“战争的教训”后移除</t>
+  </si>
+  <si>
+    <t>护航运输</t>
+  </si>
+  <si>
+    <t>核工程</t>
+  </si>
+  <si>
+    <t>八小时战略</t>
+  </si>
+  <si>
+    <t>攻城利器</t>
+  </si>
+  <si>
+    <t>女王之间</t>
+  </si>
+  <si>
+    <t>焦土策略</t>
+  </si>
+  <si>
+    <t>发展机动力量</t>
   </si>
 </sst>
 </file>
@@ -861,6 +1127,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1346,15 +1615,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="24.625" defaultRowHeight="35" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="20.625" style="1"/>
+    <col min="1" max="16384" width="24.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -1770,6 +2039,1149 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:9">
+      <c r="A23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="5">
+        <v>25</v>
+      </c>
+      <c r="C23" s="5">
+        <v>26</v>
+      </c>
+      <c r="D23" s="5">
+        <v>27</v>
+      </c>
+      <c r="E23" s="5">
+        <v>28</v>
+      </c>
+      <c r="F23" s="5">
+        <v>29</v>
+      </c>
+      <c r="G23" s="5">
+        <v>30</v>
+      </c>
+      <c r="H23" s="5">
+        <v>31</v>
+      </c>
+      <c r="I23" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:9">
+      <c r="A24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:9">
+      <c r="A25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:9">
+      <c r="A26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:9">
+      <c r="A27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:9">
+      <c r="A28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:9">
+      <c r="A29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:9">
+      <c r="A30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="3">
+        <v>33</v>
+      </c>
+      <c r="C30" s="3">
+        <v>34</v>
+      </c>
+      <c r="D30" s="3">
+        <v>35</v>
+      </c>
+      <c r="E30" s="3">
+        <v>36</v>
+      </c>
+      <c r="F30" s="3">
+        <v>37</v>
+      </c>
+      <c r="G30" s="3">
+        <v>38</v>
+      </c>
+      <c r="H30" s="3">
+        <v>39</v>
+      </c>
+      <c r="I30" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:9">
+      <c r="A31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:9">
+      <c r="A32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:9">
+      <c r="A33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:9">
+      <c r="A34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:9">
+      <c r="A35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:9">
+      <c r="A36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:9">
+      <c r="A37" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="5">
+        <v>41</v>
+      </c>
+      <c r="C37" s="5">
+        <v>42</v>
+      </c>
+      <c r="D37" s="5">
+        <v>43</v>
+      </c>
+      <c r="E37" s="5">
+        <v>44</v>
+      </c>
+      <c r="F37" s="5">
+        <v>45</v>
+      </c>
+      <c r="G37" s="5">
+        <v>46</v>
+      </c>
+      <c r="H37" s="5">
+        <v>47</v>
+      </c>
+      <c r="I37" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:9">
+      <c r="A38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:9">
+      <c r="A39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:9">
+      <c r="A40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:9">
+      <c r="A41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:9">
+      <c r="A42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:9">
+      <c r="A43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:9">
+      <c r="A44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="3">
+        <v>49</v>
+      </c>
+      <c r="C44" s="3">
+        <v>50</v>
+      </c>
+      <c r="D44" s="3">
+        <v>51</v>
+      </c>
+      <c r="E44" s="3">
+        <v>52</v>
+      </c>
+      <c r="F44" s="3">
+        <v>53</v>
+      </c>
+      <c r="G44" s="3">
+        <v>54</v>
+      </c>
+      <c r="H44" s="3">
+        <v>55</v>
+      </c>
+      <c r="I44" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:9">
+      <c r="A45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:9">
+      <c r="A46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:9">
+      <c r="A47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:9">
+      <c r="A48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:9">
+      <c r="A49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:9">
+      <c r="A50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:9">
+      <c r="A51" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="5">
+        <v>57</v>
+      </c>
+      <c r="C51" s="5">
+        <v>58</v>
+      </c>
+      <c r="D51" s="5">
+        <v>59</v>
+      </c>
+      <c r="E51" s="5">
+        <v>60</v>
+      </c>
+      <c r="F51" s="5">
+        <v>61</v>
+      </c>
+      <c r="G51" s="5">
+        <v>62</v>
+      </c>
+      <c r="H51" s="5">
+        <v>63</v>
+      </c>
+      <c r="I51" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:9">
+      <c r="A52" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:9">
+      <c r="A53" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:9">
+      <c r="A54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:9">
+      <c r="A55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" customHeight="1" spans="1:9">
+      <c r="A56" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:9">
+      <c r="A57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:9">
+      <c r="A58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="3">
+        <v>65</v>
+      </c>
+      <c r="C58" s="3">
+        <v>66</v>
+      </c>
+      <c r="D58" s="3">
+        <v>67</v>
+      </c>
+      <c r="E58" s="3">
+        <v>68</v>
+      </c>
+      <c r="F58" s="3">
+        <v>69</v>
+      </c>
+      <c r="G58" s="3">
+        <v>70</v>
+      </c>
+      <c r="H58" s="3">
+        <v>71</v>
+      </c>
+      <c r="I58" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:9">
+      <c r="A59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:9">
+      <c r="A60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:9">
+      <c r="A61" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:9">
+      <c r="A62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:9">
+      <c r="A63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:9">
+      <c r="A64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:9">
+      <c r="A65" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="5">
+        <v>73</v>
+      </c>
+      <c r="C65" s="5">
+        <v>74</v>
+      </c>
+      <c r="D65" s="5">
+        <v>75</v>
+      </c>
+      <c r="E65" s="5">
+        <v>76</v>
+      </c>
+      <c r="F65" s="5">
+        <v>77</v>
+      </c>
+      <c r="G65" s="5">
+        <v>78</v>
+      </c>
+      <c r="H65" s="5">
+        <v>79</v>
+      </c>
+      <c r="I65" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:9">
+      <c r="A66" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:9">
+      <c r="A67" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" customHeight="1" spans="1:9">
+      <c r="A68" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:9">
+      <c r="A69" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:9">
+      <c r="A70" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" customHeight="1" spans="1:9">
+      <c r="A71" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" customHeight="1" spans="1:9">
+      <c r="A72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="3">
+        <v>81</v>
+      </c>
+      <c r="C72" s="3">
+        <v>82</v>
+      </c>
+      <c r="D72" s="3">
+        <v>83</v>
+      </c>
+      <c r="E72" s="3">
+        <v>84</v>
+      </c>
+      <c r="F72" s="3">
+        <v>85</v>
+      </c>
+      <c r="G72" s="3">
+        <v>86</v>
+      </c>
+      <c r="H72" s="3">
+        <v>87</v>
+      </c>
+      <c r="I72" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:9">
+      <c r="A73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:9">
+      <c r="A74" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" customHeight="1" spans="1:9">
+      <c r="A75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" customHeight="1" spans="1:9">
+      <c r="A76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:9">
+      <c r="A77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" customHeight="1" spans="1:9">
+      <c r="A78" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" customHeight="1" spans="1:9">
+      <c r="A79" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="5">
+        <v>89</v>
+      </c>
+      <c r="C79" s="5">
+        <v>90</v>
+      </c>
+      <c r="D79" s="5">
+        <v>91</v>
+      </c>
+      <c r="E79" s="5">
+        <v>92</v>
+      </c>
+      <c r="F79" s="5">
+        <v>93</v>
+      </c>
+      <c r="G79" s="5">
+        <v>94</v>
+      </c>
+      <c r="H79" s="5">
+        <v>95</v>
+      </c>
+      <c r="I79" s="5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:9">
+      <c r="A80" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:9">
+      <c r="A81" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" customHeight="1" spans="1:9">
+      <c r="A82" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" customHeight="1" spans="1:9">
+      <c r="A83" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" customHeight="1" spans="1:9">
+      <c r="A84" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" customHeight="1" spans="1:9">
+      <c r="A85" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/WIP/月茗/新建 XLSX 工作表.xlsx
+++ b/WIP/月茗/新建 XLSX 工作表.xlsx
@@ -352,7 +352,7 @@
   </si>
   <si>
     <t>陆军经验+5
-获得“战争陆军”
+获得“战争陆军”(最小训练程度-50%）
 获得“战争海军”
 启用总司令“”（军队改革家）</t>
   </si>
@@ -1617,8 +1617,8 @@
   <sheetPr/>
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.625" defaultRowHeight="35" customHeight="1"/>

--- a/WIP/月茗/新建 XLSX 工作表.xlsx
+++ b/WIP/月茗/新建 XLSX 工作表.xlsx
@@ -1617,8 +1617,8 @@
   <sheetPr/>
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.625" defaultRowHeight="35" customHeight="1"/>

--- a/WIP/月茗/新建 XLSX 工作表.xlsx
+++ b/WIP/月茗/新建 XLSX 工作表.xlsx
@@ -213,16 +213,16 @@
     <t>启用政治顾问：工业领袖
 PP+75
 随机2个核心地区：加2个建筑槽位
-1*100%加成：工业</t>
+1*100%加成：工业
+解锁振兴魔族工业决议</t>
   </si>
   <si>
     <t>获得“工业部”：工业研究时间：+5%，建造速度：+5%
 可用工业企业：国家工业统合协会
-随机核心地区添加1建筑位，1民工
-解锁振兴魔族工业决议</t>
-  </si>
-  <si>
-    <t>激活任务：争取自给自足
+随机核心地区添加1建筑位，1民工</t>
+  </si>
+  <si>
+    <t>激活任务：争取自给自足（限时获取到足够资源，参考德佬Z舰队任务）
 随机核心地区添加1建筑位，1民工
 随机4个地区添加2建筑位
 1*100%加成：挖掘技术
@@ -242,7 +242,7 @@
   </si>
   <si>
     <t>一个特定地区：+2建筑槽，2民工，建造大坝
-激活任务：大坝带来的影响（相邻下游地区+2建筑位，+1民工）</t>
+激活任务：大坝带来的影响（365软，控制河流周围全部地区，完成后大坝地区相邻的下游地区+2建筑位，+1民工）</t>
   </si>
   <si>
     <t>触发事件“两套方案”
@@ -282,8 +282,7 @@
 解锁对外贸易决议
 PP+50
 首都+1海军基地等级
-首都与其他随机一个省份：+1船坞
-解锁振兴魔族工业决议</t>
+首都与其他随机一个省份：+1船坞</t>
   </si>
   <si>
     <t>PP+120
@@ -1618,7 +1617,7 @@
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.625" defaultRowHeight="35" customHeight="1"/>
